--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
   <si>
     <t>شماره درس</t>
   </si>
@@ -127,7 +127,7 @@
     <t>11:00-12:00</t>
   </si>
   <si>
-    <t>20:30-21:30</t>
+    <t>13:30-14:30</t>
   </si>
   <si>
     <t>15:30-16:30</t>
@@ -139,9 +139,6 @@
     <t>16:30-17:30</t>
   </si>
   <si>
-    <t>13:30-14:30</t>
-  </si>
-  <si>
     <t>18:30-19:30</t>
   </si>
   <si>
@@ -151,15 +148,9 @@
     <t>حسين ماهوش محمدي</t>
   </si>
   <si>
-    <t>391108ماهوش محمدي حسين</t>
-  </si>
-  <si>
     <t>ندا مقيم</t>
   </si>
   <si>
-    <t>302388مقيم ندا</t>
-  </si>
-  <si>
     <t>مریم طائبی</t>
   </si>
   <si>
@@ -169,19 +160,10 @@
     <t>محمدعلي نعمت بخش</t>
   </si>
   <si>
-    <t>301104نعمت بخش محمدعلي</t>
-  </si>
-  <si>
     <t>مهيار حسن پوركليدسر</t>
   </si>
   <si>
-    <t>397248حسن پوركليدسر مهيار</t>
-  </si>
-  <si>
     <t>افسانه فاطمي خوراسگاني</t>
-  </si>
-  <si>
-    <t>300236فاطمي خوراسگاني افسانه</t>
   </si>
 </sst>
 </file>
@@ -579,7 +561,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>2490</v>
+        <v>2505</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -606,15 +588,15 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
         <v>43</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>2493</v>
+        <v>2506</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -641,15 +623,15 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" t="s">
         <v>43</v>
-      </c>
-      <c r="K3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>2495</v>
+        <v>2511</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -676,15 +658,15 @@
         <v>4</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>2497</v>
+        <v>2512</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -708,18 +690,18 @@
         <v>37</v>
       </c>
       <c r="I5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>2505</v>
+        <v>2519</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -746,15 +728,15 @@
         <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>2525</v>
+        <v>2540</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -781,15 +763,15 @@
         <v>5</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>2549</v>
+        <v>2563</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -804,7 +786,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
         <v>33</v>
@@ -816,15 +798,15 @@
         <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>2550</v>
+        <v>2564</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -839,7 +821,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -851,15 +833,15 @@
         <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>2551</v>
+        <v>2566</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -874,27 +856,27 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>2553</v>
+        <v>2567</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -909,27 +891,27 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>2555</v>
+        <v>2569</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -944,27 +926,27 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12">
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>2556</v>
+        <v>2570</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -979,22 +961,22 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13">
         <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
